--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="24300" windowHeight="15780"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="295">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -1940,60 +1940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現状、IE8では画面開発ツールの精査機能が動作しないように制御している。
-開発サポート用の精査機能が動作しないため、JSPでのモックアップはモダンブラウザで開発する。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中。</t>
-    <rPh sb="0" eb="2">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JSPのローカル表示で、各ウィジェットで指定できる属性を指定しているかどうかのチェックが誤動作し、指定していないにも関わらず、「jQueryXX属性は指定できません」というエラーが表示される。</t>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
@@ -2027,22 +1973,6 @@
     </rPh>
     <rPh sb="90" eb="92">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE8でも精査機能が動作するように改修する。</t>
-    <rPh sb="5" eb="7">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カイシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4033,12 +3963,53 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>IE8は、動作検証対象外に変更。これに伴いIE8では精査機能を実行しないことを恒久対応とする。</t>
+    <rPh sb="5" eb="12">
+      <t>ドウサケンショウタイショウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セイサキノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>コウキュウタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE8では精査機能を実行しないため、動作検証ブラウザのIE11を使用してください。</t>
+    <rPh sb="5" eb="7">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ドウサケンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="MS UI Gothic"/>
@@ -4284,11 +4255,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4362,6 +4338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4396,6 +4373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4571,17 +4549,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -4602,12 +4580,12 @@
     <col min="18" max="18" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4681,7 +4659,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -4700,7 +4678,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
     </row>
-    <row r="8" spans="2:18" ht="112.5">
+    <row r="8" spans="2:18" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
         <v>139</v>
       </c>
@@ -4751,7 +4729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="112.5">
+    <row r="9" spans="2:18" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
@@ -4800,7 +4778,7 @@
       </c>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="2:18" ht="56.25">
+    <row r="10" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -4849,7 +4827,7 @@
       </c>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="2:18" ht="67.5">
+    <row r="11" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
         <v>35</v>
       </c>
@@ -4900,7 +4878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="67.5">
+    <row r="12" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
@@ -4951,9 +4929,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="67.5">
+    <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4984,7 +4962,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4993,16 +4971,16 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="56.25">
+    <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
@@ -5051,7 +5029,7 @@
       </c>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="2:18" ht="56.25">
+    <row r="15" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B15" s="18" t="s">
         <v>53</v>
       </c>
@@ -5102,7 +5080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="67.5">
+    <row r="16" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="18" t="s">
         <v>61</v>
       </c>
@@ -5155,7 +5133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="90">
+    <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.15">
       <c r="B17" s="18" t="s">
         <v>72</v>
       </c>
@@ -5208,7 +5186,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45">
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
@@ -5261,7 +5239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="78.75">
+    <row r="19" spans="1:18" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B19" s="18" t="s">
         <v>84</v>
       </c>
@@ -5314,7 +5292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="112.5">
+    <row r="20" spans="1:18" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
         <v>101</v>
       </c>
@@ -5365,7 +5343,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="22.5">
+    <row r="21" spans="1:18" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
         <v>111</v>
       </c>
@@ -5416,7 +5394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="168.75">
+    <row r="22" spans="1:18" ht="168.75" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
@@ -5461,13 +5439,13 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="67.5">
+    <row r="23" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>132</v>
       </c>
@@ -5518,7 +5496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45">
+    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -5572,7 +5550,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="67.5">
+    <row r="25" spans="1:18" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -5611,37 +5589,37 @@
         <v>37</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="Q25" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="101.25">
-      <c r="B26" s="9" t="s">
-        <v>164</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D26" s="9">
         <v>1.4</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>30</v>
@@ -5659,40 +5637,40 @@
         <v>17</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="33.75">
-      <c r="B27" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="C27" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D27" s="9">
         <v>1.4</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>30</v>
@@ -5710,27 +5688,27 @@
         <v>17</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="67.5">
+    <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>39</v>
@@ -5740,10 +5718,10 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>30</v>
@@ -5764,24 +5742,24 @@
         <v>37</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="191.25">
+    <row r="29" spans="1:18" ht="191.25" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>62</v>
@@ -5791,10 +5769,10 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>30</v>
@@ -5815,24 +5793,24 @@
         <v>37</v>
       </c>
       <c r="N29" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>185</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="23" customFormat="1" ht="101.25">
+    <row r="30" spans="1:18" s="23" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>39</v>
@@ -5863,27 +5841,27 @@
         <v>147</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R30" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="23" customFormat="1" ht="45">
+    <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>39</v>
@@ -5893,10 +5871,10 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>30</v>
@@ -5914,27 +5892,27 @@
         <v>17</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O31" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P31" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="Q31" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75">
-      <c r="B32" s="25" t="s">
-        <v>199</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5956,46 +5934,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:18" s="23" customFormat="1" ht="45">
+    <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -6004,51 +5982,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5">
+    <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6057,51 +6035,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="Q34" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="35" spans="2:18" s="23" customFormat="1" ht="90">
+    <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6110,51 +6088,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P35" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="O35" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>211</v>
-      </c>
       <c r="Q35" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25">
+    <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6163,49 +6141,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M36" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="P36" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>212</v>
-      </c>
       <c r="Q36" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25">
+    <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6214,49 +6192,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="L37" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>245</v>
-      </c>
     </row>
-    <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5">
+    <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6265,49 +6243,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K38" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="P38" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="O38" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>245</v>
-      </c>
       <c r="Q38" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R38" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25">
+    <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6319,46 +6297,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="M39" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>253</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75">
+    <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6367,49 +6345,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="O40" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="P40" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="O40" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="P40" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>272</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75">
+    <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6421,51 +6399,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M41" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="N41" s="24" t="s">
-        <v>260</v>
-      </c>
       <c r="O41" s="24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q41" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="R41" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5">
+    <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6483,40 +6461,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="O42" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="P42" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>279</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25">
+    <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6534,22 +6512,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>286</v>
-      </c>
-      <c r="N43" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="O43" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -2186,19 +2186,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「画面設計ボタン」を無効化（削除）する。</t>
-    <rPh sb="1" eb="5">
-      <t>ガメンセッケイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ムコウカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4001,6 +3988,32 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤って「画面設計ボタン」をクリックした際のオペレーションを解説書に追記</t>
+    <rPh sb="0" eb="1">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4553,10 +4566,10 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4931,7 +4944,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4962,7 +4975,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4971,13 +4984,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5439,7 +5452,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5598,10 +5611,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
@@ -5656,59 +5669,59 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="26">
         <v>1.4</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="10" t="s">
+      <c r="P27" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="R27" s="10" t="s">
-        <v>174</v>
+      <c r="R27" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>39</v>
@@ -5742,24 +5755,24 @@
         <v>37</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="191.25" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>62</v>
@@ -5793,16 +5806,16 @@
         <v>37</v>
       </c>
       <c r="N29" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="P29" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>181</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>121</v>
@@ -5810,7 +5823,7 @@
     </row>
     <row r="30" spans="1:18" s="23" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>39</v>
@@ -5841,19 +5854,19 @@
         <v>147</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R30" s="24" t="s">
         <v>121</v>
@@ -5861,7 +5874,7 @@
     </row>
     <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>39</v>
@@ -5871,7 +5884,7 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>163</v>
@@ -5892,27 +5905,27 @@
         <v>17</v>
       </c>
       <c r="M31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="N31" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="O31" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P31" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="R31" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5934,46 +5947,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="R32" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -5982,51 +5995,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="N33" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6035,51 +6048,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="N34" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6088,51 +6101,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="N35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6141,49 +6154,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>207</v>
-      </c>
       <c r="O36" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6192,49 +6205,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>241</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6243,49 +6256,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="K38" s="24" t="s">
+      <c r="L38" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>240</v>
-      </c>
       <c r="M38" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="O38" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>263</v>
-      </c>
       <c r="R38" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6297,46 +6310,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M39" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="N39" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="O39" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="O39" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>250</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6345,49 +6358,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>246</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="O40" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="P40" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>269</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6399,51 +6412,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="P41" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q41" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>259</v>
-      </c>
       <c r="R41" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6461,40 +6474,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="N42" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="O42" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>276</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6512,22 +6525,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="N43" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="O43" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -2096,44 +2096,6 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UI部品ウィジェットの不具合対応版をリリースします。
-（リリース後に左記に記載の回避策に対する修正などは発生しません。）</t>
-    <rPh sb="2" eb="4">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>カイヒサク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4007,6 +3969,13 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4268,6 +4237,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD8D8D8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4569,7 +4543,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4944,7 +4918,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4975,7 +4949,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4984,13 +4958,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5452,7 +5426,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5611,69 +5585,67 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="18">
         <v>1.4</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="O26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B27" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" s="26">
         <v>1.4</v>
@@ -5701,27 +5673,27 @@
         <v>17</v>
       </c>
       <c r="M27" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N27" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>45</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B28" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>39</v>
@@ -5755,24 +5727,24 @@
         <v>37</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R28" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="191.25" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>62</v>
@@ -5806,16 +5778,16 @@
         <v>37</v>
       </c>
       <c r="N29" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="P29" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>121</v>
@@ -5823,7 +5795,7 @@
     </row>
     <row r="30" spans="1:18" s="23" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
       <c r="B30" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>39</v>
@@ -5854,19 +5826,19 @@
         <v>147</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N30" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R30" s="24" t="s">
         <v>121</v>
@@ -5874,7 +5846,7 @@
     </row>
     <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>39</v>
@@ -5884,7 +5856,7 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>163</v>
@@ -5905,27 +5877,27 @@
         <v>17</v>
       </c>
       <c r="M31" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>191</v>
       </c>
       <c r="O31" s="24" t="s">
         <v>121</v>
       </c>
       <c r="P31" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="R31" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5947,46 +5919,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>202</v>
-      </c>
       <c r="R32" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -5995,51 +5967,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="N33" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6048,51 +6020,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="N34" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6101,51 +6073,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="N35" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6154,49 +6126,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="O36" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6205,49 +6177,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6256,49 +6228,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" s="24" t="s">
+      <c r="L38" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>239</v>
-      </c>
       <c r="M38" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="O38" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>262</v>
-      </c>
       <c r="R38" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6310,46 +6282,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="N39" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="O39" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="O39" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>249</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6358,49 +6330,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="O40" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="P40" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>268</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6412,51 +6384,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O41" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="P41" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q41" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>258</v>
-      </c>
       <c r="R41" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6474,40 +6446,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="N42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="O42" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>275</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6525,22 +6497,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="N43" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="O43" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>284</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="295">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -2603,19 +2603,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバサイドと同じように「&amp;nbsp;」を設定するように修正する。</t>
-    <rPh sb="7" eb="8">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4540,10 +4527,10 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4918,7 +4905,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4949,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4958,13 +4945,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5426,7 +5413,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5585,10 +5572,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
@@ -5596,7 +5583,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="18">
         <v>1.4</v>
@@ -5645,7 +5632,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="26">
         <v>1.4</v>
@@ -5688,7 +5675,7 @@
         <v>172</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
@@ -5845,59 +5832,59 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="25">
         <v>1.4</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="R31" s="24" t="s">
-        <v>193</v>
+      <c r="R31" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5919,46 +5906,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>201</v>
-      </c>
       <c r="R32" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -5967,51 +5954,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="N33" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6020,51 +6007,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="N34" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6073,51 +6060,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="N35" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6126,49 +6113,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>205</v>
-      </c>
       <c r="O36" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6177,49 +6164,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>239</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6228,49 +6215,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="K38" s="24" t="s">
+      <c r="L38" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>238</v>
-      </c>
       <c r="M38" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="O38" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>261</v>
-      </c>
       <c r="R38" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6282,46 +6269,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="N39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="O39" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="O39" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>248</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6330,49 +6317,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="24" t="s">
         <v>243</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="O40" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="P40" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>267</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6384,51 +6371,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="O41" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="P41" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q41" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>257</v>
-      </c>
       <c r="R41" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6446,40 +6433,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="N42" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="O42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>274</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6497,22 +6484,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="N43" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="O43" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -2597,16 +2597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「sp」ではなく「span」の使用を検討してください。</t>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#8832</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3970,6 +3960,34 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでの表示差異は基本的には発生しないが、spanで代替可能なためspanの使用を検討すること</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4527,10 +4545,10 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4905,7 +4923,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4936,7 +4954,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4945,13 +4963,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5413,7 +5431,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5572,10 +5590,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
@@ -5583,7 +5601,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="18">
         <v>1.4</v>
@@ -5632,7 +5650,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27" s="26">
         <v>1.4</v>
@@ -5675,7 +5693,7 @@
         <v>172</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
@@ -5876,7 +5894,7 @@
         <v>191</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="R31" s="25" t="s">
         <v>121</v>
@@ -5884,7 +5902,7 @@
     </row>
     <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5906,46 +5924,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="Q32" s="25" t="s">
-        <v>200</v>
-      </c>
       <c r="R32" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -5954,51 +5972,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="N33" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6007,51 +6025,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M34" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J34" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="N34" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O34" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6060,51 +6078,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M35" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="N35" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O35" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R35" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6113,49 +6131,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M36" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>204</v>
-      </c>
       <c r="O36" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6164,49 +6182,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="L37" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>238</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6215,49 +6233,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="24" t="s">
+      <c r="L38" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>237</v>
-      </c>
       <c r="M38" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N38" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="O38" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>260</v>
-      </c>
       <c r="R38" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6269,46 +6287,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="N39" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="O39" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="O39" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>247</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6317,49 +6335,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" s="24" t="s">
         <v>242</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>243</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="N40" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="O40" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="P40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>266</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6371,51 +6389,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="P41" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q41" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="P41" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>256</v>
-      </c>
       <c r="R41" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6433,40 +6451,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N42" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="O42" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>273</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6484,22 +6502,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="N43" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="O43" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="295">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -2597,29 +2597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「sp」ではなく「span」の使用を検討してください。</t>
-    <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバサイドと同じように「&amp;nbsp;」を設定するように修正する。</t>
-    <rPh sb="7" eb="8">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#8832</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3983,6 +3960,34 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでの表示差異は基本的には発生しないが、spanで代替可能なためspanの使用を検討すること</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4540,10 +4545,10 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4918,7 +4923,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4949,7 +4954,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4958,13 +4963,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5426,7 +5431,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5585,10 +5590,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
@@ -5596,7 +5601,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D26" s="18">
         <v>1.4</v>
@@ -5645,7 +5650,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D27" s="26">
         <v>1.4</v>
@@ -5688,7 +5693,7 @@
         <v>172</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
@@ -5845,59 +5850,59 @@
       </c>
     </row>
     <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="25">
         <v>1.4</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="P31" s="24" t="s">
+      <c r="P31" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="Q31" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>193</v>
+      <c r="Q31" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>62</v>
@@ -5919,46 +5924,46 @@
         <v>14</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="B33" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>43</v>
@@ -5967,51 +5972,51 @@
         <v>29</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B34" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>43</v>
@@ -6020,51 +6025,51 @@
         <v>30</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L34" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M34" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="P34" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="N34" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="P34" s="25" t="s">
-        <v>206</v>
-      </c>
       <c r="Q34" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>43</v>
@@ -6073,51 +6078,51 @@
         <v>30</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M35" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="P35" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="O35" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="P35" s="25" t="s">
+      <c r="Q35" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="R35" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="Q35" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="R35" s="25" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>43</v>
@@ -6126,49 +6131,49 @@
         <v>30</v>
       </c>
       <c r="I36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="N36" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="N36" s="25" t="s">
+      <c r="O36" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="P36" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="O36" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>207</v>
-      </c>
       <c r="Q36" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
       <c r="B37" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>102</v>
@@ -6177,49 +6182,49 @@
         <v>49</v>
       </c>
       <c r="I37" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="24" t="s">
+      <c r="M37" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="N37" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="R37" s="24" t="s">
         <v>238</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G38" s="24" t="s">
         <v>102</v>
@@ -6228,49 +6233,49 @@
         <v>29</v>
       </c>
       <c r="I38" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L38" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="J38" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L38" s="24" t="s">
+      <c r="M38" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="Q38" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="N38" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="O38" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>261</v>
-      </c>
       <c r="R38" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B39" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>102</v>
@@ -6282,46 +6287,46 @@
         <v>63</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="N39" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="O39" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q39" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="N39" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>248</v>
-      </c>
       <c r="R39" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B40" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>113</v>
@@ -6330,49 +6335,49 @@
         <v>29</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K40" s="24" t="s">
         <v>146</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M40" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="O40" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="P40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="O40" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="P40" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>267</v>
-      </c>
       <c r="R40" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
       <c r="B41" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>102</v>
@@ -6384,51 +6389,51 @@
         <v>56</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>94</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M41" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N41" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q41" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="O41" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="P41" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>257</v>
-      </c>
       <c r="R41" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B42" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C42" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H42" s="31" t="s">
         <v>29</v>
@@ -6446,40 +6451,40 @@
         <v>17</v>
       </c>
       <c r="M42" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O42" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="N42" s="31" t="s">
+      <c r="P42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="Q42" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="P42" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>274</v>
-      </c>
       <c r="R42" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
       <c r="B43" s="24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>30</v>
@@ -6497,22 +6502,22 @@
         <v>17</v>
       </c>
       <c r="M43" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="O43" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="P43" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="R43" s="24" t="s">
         <v>282</v>
-      </c>
-      <c r="O43" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/development_tools/ui_dev/doc/_static/known_issues.xlsx
+++ b/development_tools/ui_dev/doc/_static/known_issues.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="296">
   <si>
     <t>チケット番号</t>
     <rPh sb="4" eb="6">
@@ -2239,22 +2239,6 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカル表示の処理順をサーバサイドと同一となるように対応する</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ショリジュン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3989,6 +3973,14 @@
     <rPh sb="43" eb="45">
       <t>ケントウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4136,7 +4128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4203,9 +4195,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4245,6 +4234,7 @@
   <colors>
     <mruColors>
       <color rgb="FFD8D8D8"/>
+      <color rgb="FFD80000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4545,10 +4535,10 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4923,7 +4913,7 @@
     </row>
     <row r="13" spans="2:18" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>62</v>
@@ -4954,7 +4944,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>95</v>
@@ -4963,13 +4953,13 @@
         <v>96</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>97</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="56.25" x14ac:dyDescent="0.15">
@@ -5431,7 +5421,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>121</v>
@@ -5590,10 +5580,10 @@
         <v>18</v>
       </c>
       <c r="Q25" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="R25" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.15">
@@ -5601,7 +5591,7 @@
         <v>161</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="18">
         <v>1.4</v>
@@ -5643,113 +5633,115 @@
       <c r="Q26" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="R26" s="20"/>
+      <c r="R26" s="20" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="C27" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="25">
         <v>1.4</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="25" t="s">
+      <c r="P27" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q27" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="R27" s="25" t="s">
-        <v>291</v>
+      <c r="R27" s="24" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="18">
         <v>1.4</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q28" s="10" t="s">
+      <c r="P28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q28" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="R28" s="10" t="s">
-        <v>176</v>
+      <c r="R28" s="20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="191.25" x14ac:dyDescent="0.15">
       <c r="B29" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>62</v>
@@ -5783,741 +5775,741 @@
         <v>37</v>
       </c>
       <c r="N29" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="P29" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="23" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="24" t="s">
-        <v>182</v>
+    <row r="30" spans="1:18" s="22" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>1.4</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="L30" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="Q30" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="R30" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="P30" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="24" t="s">
+    </row>
+    <row r="31" spans="1:18" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="B31" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="24" t="s">
+      <c r="C31" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="24" t="s">
         <v>121</v>
       </c>
+      <c r="P31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="B31" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="26" t="s">
+    <row r="32" spans="1:18" s="22" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D32" s="24">
         <v>1.4</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="25" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L32" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="M32" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="B33" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="B35" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" s="22" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="R36" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="22" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
+      <c r="B37" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="22" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="O38" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="R38" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" s="22" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="B39" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" s="22" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B40" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R40" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="B41" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O41" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" s="22" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="J42" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="K42" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="N31" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="O31" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="R31" s="25" t="s">
-        <v>121</v>
+      <c r="L42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="N42" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O42" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="23" customFormat="1" ht="123.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="25" t="s">
+    <row r="43" spans="2:18" s="22" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
+      <c r="B43" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" s="25" t="s">
+      <c r="I43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P32" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="R32" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="B33" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q33" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="R33" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="N34" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="P34" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="R34" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="B35" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="N35" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="O35" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q35" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="R35" s="25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="R36" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" s="23" customFormat="1" ht="146.25" x14ac:dyDescent="0.15">
-      <c r="B37" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="M37" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="N37" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="R37" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" s="23" customFormat="1" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="N38" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="O38" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="P38" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="R38" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="23" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="R39" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" s="23" customFormat="1" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="N40" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="O40" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="P40" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="R40" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="O41" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="P41" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q41" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="R41" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="31" t="s">
+      <c r="J43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="31" t="s">
+      <c r="K43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="L43" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="O42" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="P42" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="R42" s="31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" s="23" customFormat="1" ht="281.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="30" t="s">
+      <c r="M43" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="24" t="s">
+      <c r="N43" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="O43" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="R43" s="23" t="s">
         <v>281</v>
-      </c>
-      <c r="P43" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="R43" s="24" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
